--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/15/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.6998</v>
+        <v>13.04879999999999</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.92929999999999</v>
+        <v>-11.10929999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.0349</v>
+        <v>12.7668</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.08129999999999</v>
+        <v>-12.17</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.15610000000001</v>
+        <v>-13.16990000000002</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -825,7 +825,7 @@
         <v>5.8</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.88540000000001</v>
+        <v>-12.11390000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.529999999999999</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.89459999999999</v>
+        <v>-11.10039999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
